--- a/Code/Results/Cases/Case_0_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9321211352931222</v>
+        <v>1.011751144388498</v>
       </c>
       <c r="D2">
-        <v>0.9455887973597344</v>
+        <v>1.014193705388803</v>
       </c>
       <c r="E2">
-        <v>0.9480462040655658</v>
+        <v>1.013890478250391</v>
       </c>
       <c r="F2">
-        <v>0.8351707775587999</v>
+        <v>1.014488441360307</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.017383217280589</v>
+        <v>1.023013711196102</v>
       </c>
       <c r="J2">
-        <v>0.9565406654160566</v>
+        <v>1.016997814213541</v>
       </c>
       <c r="K2">
-        <v>0.9578620800936486</v>
+        <v>1.01705259004418</v>
       </c>
       <c r="L2">
-        <v>0.960280144561986</v>
+        <v>1.016750272417264</v>
       </c>
       <c r="M2">
-        <v>0.8495302182260021</v>
+        <v>1.017346442540627</v>
       </c>
       <c r="N2">
-        <v>0.9578990628776952</v>
+        <v>1.018442067761004</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9450379374185183</v>
+        <v>1.013292748937411</v>
       </c>
       <c r="D3">
-        <v>0.9568778820472097</v>
+        <v>1.015558820689204</v>
       </c>
       <c r="E3">
-        <v>0.9587945832202104</v>
+        <v>1.015209691036573</v>
       </c>
       <c r="F3">
-        <v>0.8731655834749065</v>
+        <v>1.017253898378762</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.024821088819019</v>
+        <v>1.023304341867529</v>
       </c>
       <c r="J3">
-        <v>0.9671479574051068</v>
+        <v>1.018169665542221</v>
       </c>
       <c r="K3">
-        <v>0.9680939631312027</v>
+        <v>1.018221041842741</v>
       </c>
       <c r="L3">
-        <v>0.9699833334081145</v>
+        <v>1.017872882253083</v>
       </c>
       <c r="M3">
-        <v>0.8857274754883501</v>
+        <v>1.019911419986296</v>
       </c>
       <c r="N3">
-        <v>0.9685214184380434</v>
+        <v>1.019615583252984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9522895187715742</v>
+        <v>1.014279679616375</v>
       </c>
       <c r="D4">
-        <v>0.9631949755803476</v>
+        <v>1.016432694081755</v>
       </c>
       <c r="E4">
-        <v>0.9648218778157666</v>
+        <v>1.01605456773879</v>
       </c>
       <c r="F4">
-        <v>0.8930184908455249</v>
+        <v>1.018992688228816</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028688426676063</v>
+        <v>1.023479063045243</v>
       </c>
       <c r="J4">
-        <v>0.9729977451386951</v>
+        <v>1.018917109664778</v>
       </c>
       <c r="K4">
-        <v>0.9737588843547978</v>
+        <v>1.018967170918123</v>
       </c>
       <c r="L4">
-        <v>0.9753642701568761</v>
+        <v>1.018590041386176</v>
       </c>
       <c r="M4">
-        <v>0.9046061326952968</v>
+        <v>1.021520437463888</v>
       </c>
       <c r="N4">
-        <v>0.9743795135411931</v>
+        <v>1.020364088831928</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9551513578906523</v>
+        <v>1.014692095914894</v>
       </c>
       <c r="D5">
-        <v>0.9656848345721941</v>
+        <v>1.01679784959094</v>
       </c>
       <c r="E5">
-        <v>0.9671999030719214</v>
+        <v>1.016407699411662</v>
       </c>
       <c r="F5">
-        <v>0.9005933501820107</v>
+        <v>1.019711738599856</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030156337552919</v>
+        <v>1.023549349751155</v>
       </c>
       <c r="J5">
-        <v>0.9752873694307714</v>
+        <v>1.019228785847496</v>
       </c>
       <c r="K5">
-        <v>0.9759803371170833</v>
+        <v>1.019278503880662</v>
       </c>
       <c r="L5">
-        <v>0.9774759992037683</v>
+        <v>1.018889358919755</v>
       </c>
       <c r="M5">
-        <v>0.9118011747210789</v>
+        <v>1.022184911517033</v>
       </c>
       <c r="N5">
-        <v>0.976672389362388</v>
+        <v>1.020676207630576</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9556223749244924</v>
+        <v>1.014761197737103</v>
       </c>
       <c r="D6">
-        <v>0.9660944752245541</v>
+        <v>1.016859031717523</v>
       </c>
       <c r="E6">
-        <v>0.9675912717162812</v>
+        <v>1.016466872370215</v>
       </c>
       <c r="F6">
-        <v>0.9018265799946932</v>
+        <v>1.019831775563913</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030394804168407</v>
+        <v>1.023560966267709</v>
       </c>
       <c r="J6">
-        <v>0.9756632109093472</v>
+        <v>1.019280969313923</v>
       </c>
       <c r="K6">
-        <v>0.9763452124938086</v>
+        <v>1.019330641951534</v>
       </c>
       <c r="L6">
-        <v>0.977822939845907</v>
+        <v>1.018939489071833</v>
       </c>
       <c r="M6">
-        <v>0.9129720958281388</v>
+        <v>1.022295783464792</v>
       </c>
       <c r="N6">
-        <v>0.9770487645789731</v>
+        <v>1.02072846520351</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9523284230703241</v>
+        <v>1.014285200064878</v>
       </c>
       <c r="D7">
-        <v>0.963228834274763</v>
+        <v>1.016437581981028</v>
       </c>
       <c r="E7">
-        <v>0.9648542067719359</v>
+        <v>1.016059294324445</v>
       </c>
       <c r="F7">
-        <v>0.8931224204242497</v>
+        <v>1.019002342877297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028708601201311</v>
+        <v>1.023480014626097</v>
       </c>
       <c r="J7">
-        <v>0.9730289410730796</v>
+        <v>1.01892128426061</v>
       </c>
       <c r="K7">
-        <v>0.9737891356829892</v>
+        <v>1.01897134010692</v>
       </c>
       <c r="L7">
-        <v>0.9753930211311381</v>
+        <v>1.018594049384661</v>
       </c>
       <c r="M7">
-        <v>0.9047048836763671</v>
+        <v>1.021529362950481</v>
       </c>
       <c r="N7">
-        <v>0.9744107537773827</v>
+        <v>1.020368269356165</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9367834133301999</v>
+        <v>1.012274358294898</v>
       </c>
       <c r="D8">
-        <v>0.9496699326657388</v>
+        <v>1.014657034071791</v>
       </c>
       <c r="E8">
-        <v>0.9519283446282467</v>
+        <v>1.014338146382617</v>
       </c>
       <c r="F8">
-        <v>0.849308402228179</v>
+        <v>1.015433644118661</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.020152421920287</v>
+        <v>1.023114709385951</v>
       </c>
       <c r="J8">
-        <v>0.9603990470485845</v>
+        <v>1.017396113452992</v>
       </c>
       <c r="K8">
-        <v>0.9615777582962022</v>
+        <v>1.017449555860714</v>
       </c>
       <c r="L8">
-        <v>0.9638014060531955</v>
+        <v>1.017131600805361</v>
       </c>
       <c r="M8">
-        <v>0.8630076184195974</v>
+        <v>1.018223897262547</v>
       </c>
       <c r="N8">
-        <v>0.9617629238547037</v>
+        <v>1.018840932631061</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9367834133301999</v>
+        <v>1.00864767681999</v>
       </c>
       <c r="D9">
-        <v>0.9496699326657388</v>
+        <v>1.01144515747268</v>
       </c>
       <c r="E9">
-        <v>0.9519283446282467</v>
+        <v>1.011236461546351</v>
       </c>
       <c r="F9">
-        <v>0.849308402228179</v>
+        <v>1.008748158077022</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.020152421920287</v>
+        <v>1.022367526740987</v>
       </c>
       <c r="J9">
-        <v>0.9603990470485845</v>
+        <v>1.01462368178593</v>
       </c>
       <c r="K9">
-        <v>0.9615777582962022</v>
+        <v>1.014689973466053</v>
       </c>
       <c r="L9">
-        <v>0.9638014060531955</v>
+        <v>1.0144819953177</v>
       </c>
       <c r="M9">
-        <v>0.8630076184195974</v>
+        <v>1.012002275170437</v>
       </c>
       <c r="N9">
-        <v>0.9617629238547037</v>
+        <v>1.016064563793028</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9367834133301999</v>
+        <v>1.006170559489222</v>
       </c>
       <c r="D10">
-        <v>0.9496699326657388</v>
+        <v>1.009250984001498</v>
       </c>
       <c r="E10">
-        <v>0.9519283446282467</v>
+        <v>1.009119641440275</v>
       </c>
       <c r="F10">
-        <v>0.849308402228179</v>
+        <v>1.004010528187619</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020152421920287</v>
+        <v>1.021797782711332</v>
       </c>
       <c r="J10">
-        <v>0.9603990470485845</v>
+        <v>1.01271531083376</v>
       </c>
       <c r="K10">
-        <v>0.9615777582962022</v>
+        <v>1.012794957402486</v>
       </c>
       <c r="L10">
-        <v>0.9638014060531955</v>
+        <v>1.01266411213005</v>
       </c>
       <c r="M10">
-        <v>0.8630076184195974</v>
+        <v>1.007574454944737</v>
       </c>
       <c r="N10">
-        <v>0.9617629238547037</v>
+        <v>1.014153482735213</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9367834133301999</v>
+        <v>1.005083065602942</v>
       </c>
       <c r="D11">
-        <v>0.9496699326657388</v>
+        <v>1.008287612640525</v>
       </c>
       <c r="E11">
-        <v>0.9519283446282467</v>
+        <v>1.008190731961095</v>
       </c>
       <c r="F11">
-        <v>0.849308402228179</v>
+        <v>1.001889156436911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020152421920287</v>
+        <v>1.021533572245972</v>
       </c>
       <c r="J11">
-        <v>0.9603990470485845</v>
+        <v>1.011873980239429</v>
       </c>
       <c r="K11">
-        <v>0.9615777582962022</v>
+        <v>1.011960585483849</v>
       </c>
       <c r="L11">
-        <v>0.9638014060531955</v>
+        <v>1.011864086257473</v>
       </c>
       <c r="M11">
-        <v>0.8630076184195974</v>
+        <v>1.005587498512735</v>
       </c>
       <c r="N11">
-        <v>0.9617629238547037</v>
+        <v>1.013310957354936</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9367834133301999</v>
+        <v>1.004676811853962</v>
       </c>
       <c r="D12">
-        <v>0.9496699326657388</v>
+        <v>1.00792771249389</v>
       </c>
       <c r="E12">
-        <v>0.9519283446282467</v>
+        <v>1.007843781866891</v>
       </c>
       <c r="F12">
-        <v>0.849308402228179</v>
+        <v>1.001090365097118</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020152421920287</v>
+        <v>1.021432753711119</v>
       </c>
       <c r="J12">
-        <v>0.9603990470485845</v>
+        <v>1.011559152372105</v>
       </c>
       <c r="K12">
-        <v>0.9615777582962022</v>
+        <v>1.011648522776114</v>
       </c>
       <c r="L12">
-        <v>0.9638014060531955</v>
+        <v>1.011564927338318</v>
       </c>
       <c r="M12">
-        <v>0.8630076184195974</v>
+        <v>1.004838686493379</v>
       </c>
       <c r="N12">
-        <v>0.9617629238547037</v>
+        <v>1.01299568239593</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9367834133301999</v>
+        <v>1.004764060433098</v>
       </c>
       <c r="D13">
-        <v>0.9496699326657388</v>
+        <v>1.008005006673628</v>
       </c>
       <c r="E13">
-        <v>0.9519283446282467</v>
+        <v>1.007918291389118</v>
       </c>
       <c r="F13">
-        <v>0.849308402228179</v>
+        <v>1.001262203374373</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020152421920287</v>
+        <v>1.021454501683428</v>
       </c>
       <c r="J13">
-        <v>0.9603990470485845</v>
+        <v>1.011626790148051</v>
       </c>
       <c r="K13">
-        <v>0.9615777582962022</v>
+        <v>1.011715559189739</v>
       </c>
       <c r="L13">
-        <v>0.9638014060531955</v>
+        <v>1.0116291891676</v>
       </c>
       <c r="M13">
-        <v>0.8630076184195974</v>
+        <v>1.004999801515209</v>
       </c>
       <c r="N13">
-        <v>0.9617629238547037</v>
+        <v>1.013063416225276</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9367834133301999</v>
+        <v>1.005049532108908</v>
       </c>
       <c r="D14">
-        <v>0.9496699326657388</v>
+        <v>1.008257905624941</v>
       </c>
       <c r="E14">
-        <v>0.9519283446282467</v>
+        <v>1.008162092329393</v>
       </c>
       <c r="F14">
-        <v>0.849308402228179</v>
+        <v>1.001823350679566</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020152421920287</v>
+        <v>1.021525293500321</v>
       </c>
       <c r="J14">
-        <v>0.9603990470485845</v>
+        <v>1.011848004208179</v>
       </c>
       <c r="K14">
-        <v>0.9615777582962022</v>
+        <v>1.011934834318987</v>
       </c>
       <c r="L14">
-        <v>0.9638014060531955</v>
+        <v>1.011839398719397</v>
       </c>
       <c r="M14">
-        <v>0.8630076184195974</v>
+        <v>1.005525822942547</v>
       </c>
       <c r="N14">
-        <v>0.9617629238547037</v>
+        <v>1.013284944434743</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9367834133301999</v>
+        <v>1.005225112237996</v>
       </c>
       <c r="D15">
-        <v>0.9496699326657388</v>
+        <v>1.008413449851108</v>
       </c>
       <c r="E15">
-        <v>0.9519283446282467</v>
+        <v>1.008312050889605</v>
       </c>
       <c r="F15">
-        <v>0.849308402228179</v>
+        <v>1.002167648726334</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020152421920287</v>
+        <v>1.021568554160169</v>
       </c>
       <c r="J15">
-        <v>0.9603990470485845</v>
+        <v>1.011983991942022</v>
       </c>
       <c r="K15">
-        <v>0.9615777582962022</v>
+        <v>1.01206965143403</v>
       </c>
       <c r="L15">
-        <v>0.9638014060531955</v>
+        <v>1.011968649717498</v>
       </c>
       <c r="M15">
-        <v>0.8630076184195974</v>
+        <v>1.005848485954044</v>
       </c>
       <c r="N15">
-        <v>0.9617629238547037</v>
+        <v>1.013421125286766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9367834133301999</v>
+        <v>1.006242413066293</v>
       </c>
       <c r="D16">
-        <v>0.9496699326657388</v>
+        <v>1.009314634458733</v>
       </c>
       <c r="E16">
-        <v>0.9519283446282467</v>
+        <v>1.009181025496012</v>
       </c>
       <c r="F16">
-        <v>0.849308402228179</v>
+        <v>1.004149816903949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020152421920287</v>
+        <v>1.021814944556084</v>
       </c>
       <c r="J16">
-        <v>0.9603990470485845</v>
+        <v>1.012770825607459</v>
       </c>
       <c r="K16">
-        <v>0.9615777582962022</v>
+        <v>1.012850035439281</v>
       </c>
       <c r="L16">
-        <v>0.9638014060531955</v>
+        <v>1.012716931008891</v>
       </c>
       <c r="M16">
-        <v>0.8630076184195974</v>
+        <v>1.007704829532407</v>
       </c>
       <c r="N16">
-        <v>0.9617629238547037</v>
+        <v>1.014209076346259</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9367834133301999</v>
+        <v>1.006876503078135</v>
       </c>
       <c r="D17">
-        <v>0.9496699326657388</v>
+        <v>1.00987632310218</v>
       </c>
       <c r="E17">
-        <v>0.9519283446282467</v>
+        <v>1.009722771417489</v>
       </c>
       <c r="F17">
-        <v>0.849308402228179</v>
+        <v>1.00537423912678</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020152421920287</v>
+        <v>1.021964778288326</v>
       </c>
       <c r="J17">
-        <v>0.9603990470485845</v>
+        <v>1.013260325043385</v>
       </c>
       <c r="K17">
-        <v>0.9615777582962022</v>
+        <v>1.013335806549797</v>
       </c>
       <c r="L17">
-        <v>0.9638014060531955</v>
+        <v>1.013182821120296</v>
       </c>
       <c r="M17">
-        <v>0.8630076184195974</v>
+        <v>1.008850404445092</v>
       </c>
       <c r="N17">
-        <v>0.9617629238547037</v>
+        <v>1.01469927092753</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9367834133301999</v>
+        <v>1.007244926018013</v>
       </c>
       <c r="D18">
-        <v>0.9496699326657388</v>
+        <v>1.010202669960987</v>
       </c>
       <c r="E18">
-        <v>0.9519283446282467</v>
+        <v>1.010037579073759</v>
       </c>
       <c r="F18">
-        <v>0.849308402228179</v>
+        <v>1.006081697157302</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020152421920287</v>
+        <v>1.022050488041301</v>
       </c>
       <c r="J18">
-        <v>0.9603990470485845</v>
+        <v>1.013544399941989</v>
       </c>
       <c r="K18">
-        <v>0.9615777582962022</v>
+        <v>1.013617819972301</v>
       </c>
       <c r="L18">
-        <v>0.9638014060531955</v>
+        <v>1.013453329389758</v>
       </c>
       <c r="M18">
-        <v>0.8630076184195974</v>
+        <v>1.009511897001076</v>
       </c>
       <c r="N18">
-        <v>0.9617629238547037</v>
+        <v>1.014983749245075</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9367834133301999</v>
+        <v>1.00737030815299</v>
       </c>
       <c r="D19">
-        <v>0.9496699326657388</v>
+        <v>1.010313731203653</v>
       </c>
       <c r="E19">
-        <v>0.9519283446282467</v>
+        <v>1.010144721411059</v>
       </c>
       <c r="F19">
-        <v>0.849308402228179</v>
+        <v>1.006321790182017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020152421920287</v>
+        <v>1.022079428339569</v>
       </c>
       <c r="J19">
-        <v>0.9603990470485845</v>
+        <v>1.013641019561814</v>
       </c>
       <c r="K19">
-        <v>0.9615777582962022</v>
+        <v>1.013713755772717</v>
       </c>
       <c r="L19">
-        <v>0.9638014060531955</v>
+        <v>1.013545357568964</v>
       </c>
       <c r="M19">
-        <v>0.8630076184195974</v>
+        <v>1.009736320855286</v>
       </c>
       <c r="N19">
-        <v>0.9617629238547037</v>
+        <v>1.015080506075842</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9367834133301999</v>
+        <v>1.006808619757889</v>
       </c>
       <c r="D20">
-        <v>0.9496699326657388</v>
+        <v>1.009816191737622</v>
       </c>
       <c r="E20">
-        <v>0.9519283446282467</v>
+        <v>1.009664770065313</v>
       </c>
       <c r="F20">
-        <v>0.849308402228179</v>
+        <v>1.005243568167238</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020152421920287</v>
+        <v>1.021948877249654</v>
       </c>
       <c r="J20">
-        <v>0.9603990470485845</v>
+        <v>1.013207955998</v>
       </c>
       <c r="K20">
-        <v>0.9615777582962022</v>
+        <v>1.013283825784255</v>
       </c>
       <c r="L20">
-        <v>0.9638014060531955</v>
+        <v>1.013132963948074</v>
       </c>
       <c r="M20">
-        <v>0.8630076184195974</v>
+        <v>1.008728190405761</v>
       </c>
       <c r="N20">
-        <v>0.9617629238547037</v>
+        <v>1.014646827512094</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9367834133301999</v>
+        <v>1.004965532200604</v>
       </c>
       <c r="D21">
-        <v>0.9496699326657388</v>
+        <v>1.008183490635576</v>
       </c>
       <c r="E21">
-        <v>0.9519283446282467</v>
+        <v>1.008090352320266</v>
       </c>
       <c r="F21">
-        <v>0.849308402228179</v>
+        <v>1.001658408055019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020152421920287</v>
+        <v>1.021504521438549</v>
       </c>
       <c r="J21">
-        <v>0.9603990470485845</v>
+        <v>1.011782926796021</v>
       </c>
       <c r="K21">
-        <v>0.9615777582962022</v>
+        <v>1.01187032286249</v>
       </c>
       <c r="L21">
-        <v>0.9638014060531955</v>
+        <v>1.011777552783077</v>
       </c>
       <c r="M21">
-        <v>0.8630076184195974</v>
+        <v>1.005371222496674</v>
       </c>
       <c r="N21">
-        <v>0.9617629238547037</v>
+        <v>1.013219774605195</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9367834133301999</v>
+        <v>1.003793304507564</v>
       </c>
       <c r="D22">
-        <v>0.9496699326657388</v>
+        <v>1.007144985821511</v>
       </c>
       <c r="E22">
-        <v>0.9519283446282467</v>
+        <v>1.007089358998104</v>
       </c>
       <c r="F22">
-        <v>0.849308402228179</v>
+        <v>0.9993415083748991</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020152421920287</v>
+        <v>1.021209610501494</v>
       </c>
       <c r="J22">
-        <v>0.9603990470485845</v>
+        <v>1.010873493545802</v>
       </c>
       <c r="K22">
-        <v>0.9615777582962022</v>
+        <v>1.010969182411109</v>
       </c>
       <c r="L22">
-        <v>0.9638014060531955</v>
+        <v>1.01091378453477</v>
       </c>
       <c r="M22">
-        <v>0.8630076184195974</v>
+        <v>1.003198100317083</v>
       </c>
       <c r="N22">
-        <v>0.9617629238547037</v>
+        <v>1.012309049855447</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9367834133301999</v>
+        <v>1.0044160210813</v>
       </c>
       <c r="D23">
-        <v>0.9496699326657388</v>
+        <v>1.00769667376586</v>
       </c>
       <c r="E23">
-        <v>0.9519283446282467</v>
+        <v>1.007621077844902</v>
       </c>
       <c r="F23">
-        <v>0.849308402228179</v>
+        <v>1.000575799664811</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020152421920287</v>
+        <v>1.021367437394189</v>
       </c>
       <c r="J23">
-        <v>0.9603990470485845</v>
+        <v>1.011356900995297</v>
       </c>
       <c r="K23">
-        <v>0.9615777582962022</v>
+        <v>1.011448093248226</v>
       </c>
       <c r="L23">
-        <v>0.9638014060531955</v>
+        <v>1.011372801958976</v>
       </c>
       <c r="M23">
-        <v>0.8630076184195974</v>
+        <v>1.0043561396138</v>
       </c>
       <c r="N23">
-        <v>0.9617629238547037</v>
+        <v>1.012793143798968</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9367834133301999</v>
+        <v>1.006839297725893</v>
       </c>
       <c r="D24">
-        <v>0.9496699326657388</v>
+        <v>1.009843366453837</v>
       </c>
       <c r="E24">
-        <v>0.9519283446282467</v>
+        <v>1.009690982033348</v>
       </c>
       <c r="F24">
-        <v>0.849308402228179</v>
+        <v>1.005302633514715</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020152421920287</v>
+        <v>1.021956067450449</v>
       </c>
       <c r="J24">
-        <v>0.9603990470485845</v>
+        <v>1.013231623766641</v>
       </c>
       <c r="K24">
-        <v>0.9615777582962022</v>
+        <v>1.01330731775643</v>
       </c>
       <c r="L24">
-        <v>0.9638014060531955</v>
+        <v>1.013155496078587</v>
       </c>
       <c r="M24">
-        <v>0.8630076184195974</v>
+        <v>1.008783434359067</v>
       </c>
       <c r="N24">
-        <v>0.9617629238547037</v>
+        <v>1.014670528891682</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9367834133301999</v>
+        <v>1.009595462129415</v>
       </c>
       <c r="D25">
-        <v>0.9496699326657388</v>
+        <v>1.012284603828029</v>
       </c>
       <c r="E25">
-        <v>0.9519283446282467</v>
+        <v>1.01204674862512</v>
       </c>
       <c r="F25">
-        <v>0.849308402228179</v>
+        <v>1.010524912778679</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020152421920287</v>
+        <v>1.022573152998984</v>
       </c>
       <c r="J25">
-        <v>0.9603990470485845</v>
+        <v>1.015350778269024</v>
       </c>
       <c r="K25">
-        <v>0.9615777582962022</v>
+        <v>1.015412916725442</v>
       </c>
       <c r="L25">
-        <v>0.9638014060531955</v>
+        <v>1.015175847790463</v>
       </c>
       <c r="M25">
-        <v>0.8630076184195974</v>
+        <v>1.013659052224085</v>
       </c>
       <c r="N25">
-        <v>0.9617629238547037</v>
+        <v>1.016792692836528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011751144388498</v>
+        <v>0.9321211352931232</v>
       </c>
       <c r="D2">
-        <v>1.014193705388803</v>
+        <v>0.9455887973597358</v>
       </c>
       <c r="E2">
-        <v>1.013890478250391</v>
+        <v>0.9480462040655671</v>
       </c>
       <c r="F2">
-        <v>1.014488441360307</v>
+        <v>0.8351707775588009</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023013711196102</v>
+        <v>1.017383217280589</v>
       </c>
       <c r="J2">
-        <v>1.016997814213541</v>
+        <v>0.9565406654160576</v>
       </c>
       <c r="K2">
-        <v>1.01705259004418</v>
+        <v>0.9578620800936498</v>
       </c>
       <c r="L2">
-        <v>1.016750272417264</v>
+        <v>0.9602801445619871</v>
       </c>
       <c r="M2">
-        <v>1.017346442540627</v>
+        <v>0.8495302182260033</v>
       </c>
       <c r="N2">
-        <v>1.018442067761004</v>
+        <v>0.9578990628776963</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013292748937411</v>
+        <v>0.9450379374185182</v>
       </c>
       <c r="D3">
-        <v>1.015558820689204</v>
+        <v>0.9568778820472097</v>
       </c>
       <c r="E3">
-        <v>1.015209691036573</v>
+        <v>0.9587945832202104</v>
       </c>
       <c r="F3">
-        <v>1.017253898378762</v>
+        <v>0.8731655834749069</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023304341867529</v>
+        <v>1.024821088819019</v>
       </c>
       <c r="J3">
-        <v>1.018169665542221</v>
+        <v>0.9671479574051068</v>
       </c>
       <c r="K3">
-        <v>1.018221041842741</v>
+        <v>0.9680939631312027</v>
       </c>
       <c r="L3">
-        <v>1.017872882253083</v>
+        <v>0.9699833334081145</v>
       </c>
       <c r="M3">
-        <v>1.019911419986296</v>
+        <v>0.8857274754883503</v>
       </c>
       <c r="N3">
-        <v>1.019615583252984</v>
+        <v>0.9685214184380434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014279679616375</v>
+        <v>0.9522895187715745</v>
       </c>
       <c r="D4">
-        <v>1.016432694081755</v>
+        <v>0.9631949755803476</v>
       </c>
       <c r="E4">
-        <v>1.01605456773879</v>
+        <v>0.9648218778157667</v>
       </c>
       <c r="F4">
-        <v>1.018992688228816</v>
+        <v>0.8930184908455249</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023479063045243</v>
+        <v>1.028688426676063</v>
       </c>
       <c r="J4">
-        <v>1.018917109664778</v>
+        <v>0.9729977451386954</v>
       </c>
       <c r="K4">
-        <v>1.018967170918123</v>
+        <v>0.973758884354798</v>
       </c>
       <c r="L4">
-        <v>1.018590041386176</v>
+        <v>0.9753642701568764</v>
       </c>
       <c r="M4">
-        <v>1.021520437463888</v>
+        <v>0.9046061326952967</v>
       </c>
       <c r="N4">
-        <v>1.020364088831928</v>
+        <v>0.9743795135411936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014692095914894</v>
+        <v>0.9551513578906515</v>
       </c>
       <c r="D5">
-        <v>1.01679784959094</v>
+        <v>0.9656848345721933</v>
       </c>
       <c r="E5">
-        <v>1.016407699411662</v>
+        <v>0.9671999030719207</v>
       </c>
       <c r="F5">
-        <v>1.019711738599856</v>
+        <v>0.90059335018201</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023549349751155</v>
+        <v>1.030156337552919</v>
       </c>
       <c r="J5">
-        <v>1.019228785847496</v>
+        <v>0.9752873694307708</v>
       </c>
       <c r="K5">
-        <v>1.019278503880662</v>
+        <v>0.9759803371170824</v>
       </c>
       <c r="L5">
-        <v>1.018889358919755</v>
+        <v>0.9774759992037676</v>
       </c>
       <c r="M5">
-        <v>1.022184911517033</v>
+        <v>0.9118011747210782</v>
       </c>
       <c r="N5">
-        <v>1.020676207630576</v>
+        <v>0.9766723893623873</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014761197737103</v>
+        <v>0.9556223749244915</v>
       </c>
       <c r="D6">
-        <v>1.016859031717523</v>
+        <v>0.9660944752245533</v>
       </c>
       <c r="E6">
-        <v>1.016466872370215</v>
+        <v>0.9675912717162806</v>
       </c>
       <c r="F6">
-        <v>1.019831775563913</v>
+        <v>0.9018265799946926</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023560966267709</v>
+        <v>1.030394804168407</v>
       </c>
       <c r="J6">
-        <v>1.019280969313923</v>
+        <v>0.9756632109093463</v>
       </c>
       <c r="K6">
-        <v>1.019330641951534</v>
+        <v>0.9763452124938079</v>
       </c>
       <c r="L6">
-        <v>1.018939489071833</v>
+        <v>0.9778229398459062</v>
       </c>
       <c r="M6">
-        <v>1.022295783464792</v>
+        <v>0.9129720958281383</v>
       </c>
       <c r="N6">
-        <v>1.02072846520351</v>
+        <v>0.9770487645789717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014285200064878</v>
+        <v>0.9523284230703244</v>
       </c>
       <c r="D7">
-        <v>1.016437581981028</v>
+        <v>0.9632288342747638</v>
       </c>
       <c r="E7">
-        <v>1.016059294324445</v>
+        <v>0.9648542067719361</v>
       </c>
       <c r="F7">
-        <v>1.019002342877297</v>
+        <v>0.8931224204242501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023480014626097</v>
+        <v>1.028708601201312</v>
       </c>
       <c r="J7">
-        <v>1.01892128426061</v>
+        <v>0.97302894107308</v>
       </c>
       <c r="K7">
-        <v>1.01897134010692</v>
+        <v>0.9737891356829897</v>
       </c>
       <c r="L7">
-        <v>1.018594049384661</v>
+        <v>0.9753930211311383</v>
       </c>
       <c r="M7">
-        <v>1.021529362950481</v>
+        <v>0.9047048836763675</v>
       </c>
       <c r="N7">
-        <v>1.020368269356165</v>
+        <v>0.9744107537773831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012274358294898</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D8">
-        <v>1.014657034071791</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E8">
-        <v>1.014338146382617</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F8">
-        <v>1.015433644118661</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023114709385951</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J8">
-        <v>1.017396113452992</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K8">
-        <v>1.017449555860714</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L8">
-        <v>1.017131600805361</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M8">
-        <v>1.018223897262547</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N8">
-        <v>1.018840932631061</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00864767681999</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D9">
-        <v>1.01144515747268</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E9">
-        <v>1.011236461546351</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F9">
-        <v>1.008748158077022</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022367526740987</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J9">
-        <v>1.01462368178593</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K9">
-        <v>1.014689973466053</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L9">
-        <v>1.0144819953177</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M9">
-        <v>1.012002275170437</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N9">
-        <v>1.016064563793028</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006170559489222</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D10">
-        <v>1.009250984001498</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E10">
-        <v>1.009119641440275</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F10">
-        <v>1.004010528187619</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021797782711332</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J10">
-        <v>1.01271531083376</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K10">
-        <v>1.012794957402486</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L10">
-        <v>1.01266411213005</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M10">
-        <v>1.007574454944737</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N10">
-        <v>1.014153482735213</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005083065602942</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D11">
-        <v>1.008287612640525</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E11">
-        <v>1.008190731961095</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F11">
-        <v>1.001889156436911</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021533572245972</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J11">
-        <v>1.011873980239429</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K11">
-        <v>1.011960585483849</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L11">
-        <v>1.011864086257473</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M11">
-        <v>1.005587498512735</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N11">
-        <v>1.013310957354936</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004676811853962</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D12">
-        <v>1.00792771249389</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E12">
-        <v>1.007843781866891</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F12">
-        <v>1.001090365097118</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021432753711119</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J12">
-        <v>1.011559152372105</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K12">
-        <v>1.011648522776114</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L12">
-        <v>1.011564927338318</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M12">
-        <v>1.004838686493379</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N12">
-        <v>1.01299568239593</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004764060433098</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D13">
-        <v>1.008005006673628</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E13">
-        <v>1.007918291389118</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F13">
-        <v>1.001262203374373</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021454501683428</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J13">
-        <v>1.011626790148051</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K13">
-        <v>1.011715559189739</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L13">
-        <v>1.0116291891676</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M13">
-        <v>1.004999801515209</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N13">
-        <v>1.013063416225276</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005049532108908</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D14">
-        <v>1.008257905624941</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E14">
-        <v>1.008162092329393</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F14">
-        <v>1.001823350679566</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021525293500321</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J14">
-        <v>1.011848004208179</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K14">
-        <v>1.011934834318987</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L14">
-        <v>1.011839398719397</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M14">
-        <v>1.005525822942547</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N14">
-        <v>1.013284944434743</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005225112237996</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D15">
-        <v>1.008413449851108</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E15">
-        <v>1.008312050889605</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F15">
-        <v>1.002167648726334</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021568554160169</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J15">
-        <v>1.011983991942022</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K15">
-        <v>1.01206965143403</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L15">
-        <v>1.011968649717498</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M15">
-        <v>1.005848485954044</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N15">
-        <v>1.013421125286766</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006242413066293</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D16">
-        <v>1.009314634458733</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E16">
-        <v>1.009181025496012</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F16">
-        <v>1.004149816903949</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021814944556084</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J16">
-        <v>1.012770825607459</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K16">
-        <v>1.012850035439281</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L16">
-        <v>1.012716931008891</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M16">
-        <v>1.007704829532407</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N16">
-        <v>1.014209076346259</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006876503078135</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D17">
-        <v>1.00987632310218</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E17">
-        <v>1.009722771417489</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F17">
-        <v>1.00537423912678</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021964778288326</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J17">
-        <v>1.013260325043385</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K17">
-        <v>1.013335806549797</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L17">
-        <v>1.013182821120296</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M17">
-        <v>1.008850404445092</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N17">
-        <v>1.01469927092753</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007244926018013</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D18">
-        <v>1.010202669960987</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E18">
-        <v>1.010037579073759</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F18">
-        <v>1.006081697157302</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022050488041301</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J18">
-        <v>1.013544399941989</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K18">
-        <v>1.013617819972301</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L18">
-        <v>1.013453329389758</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M18">
-        <v>1.009511897001076</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N18">
-        <v>1.014983749245075</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00737030815299</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D19">
-        <v>1.010313731203653</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E19">
-        <v>1.010144721411059</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F19">
-        <v>1.006321790182017</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022079428339569</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J19">
-        <v>1.013641019561814</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K19">
-        <v>1.013713755772717</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L19">
-        <v>1.013545357568964</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M19">
-        <v>1.009736320855286</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N19">
-        <v>1.015080506075842</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006808619757889</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D20">
-        <v>1.009816191737622</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E20">
-        <v>1.009664770065313</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F20">
-        <v>1.005243568167238</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021948877249654</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J20">
-        <v>1.013207955998</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K20">
-        <v>1.013283825784255</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L20">
-        <v>1.013132963948074</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M20">
-        <v>1.008728190405761</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N20">
-        <v>1.014646827512094</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004965532200604</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D21">
-        <v>1.008183490635576</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E21">
-        <v>1.008090352320266</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F21">
-        <v>1.001658408055019</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021504521438549</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J21">
-        <v>1.011782926796021</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K21">
-        <v>1.01187032286249</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L21">
-        <v>1.011777552783077</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M21">
-        <v>1.005371222496674</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N21">
-        <v>1.013219774605195</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003793304507564</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D22">
-        <v>1.007144985821511</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E22">
-        <v>1.007089358998104</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F22">
-        <v>0.9993415083748991</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021209610501494</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J22">
-        <v>1.010873493545802</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K22">
-        <v>1.010969182411109</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L22">
-        <v>1.01091378453477</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M22">
-        <v>1.003198100317083</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N22">
-        <v>1.012309049855447</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0044160210813</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D23">
-        <v>1.00769667376586</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E23">
-        <v>1.007621077844902</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F23">
-        <v>1.000575799664811</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021367437394189</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J23">
-        <v>1.011356900995297</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K23">
-        <v>1.011448093248226</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L23">
-        <v>1.011372801958976</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M23">
-        <v>1.0043561396138</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N23">
-        <v>1.012793143798968</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006839297725893</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D24">
-        <v>1.009843366453837</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E24">
-        <v>1.009690982033348</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F24">
-        <v>1.005302633514715</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021956067450449</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J24">
-        <v>1.013231623766641</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K24">
-        <v>1.01330731775643</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L24">
-        <v>1.013155496078587</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M24">
-        <v>1.008783434359067</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N24">
-        <v>1.014670528891682</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009595462129415</v>
+        <v>0.9367834133302001</v>
       </c>
       <c r="D25">
-        <v>1.012284603828029</v>
+        <v>0.9496699326657394</v>
       </c>
       <c r="E25">
-        <v>1.01204674862512</v>
+        <v>0.9519283446282468</v>
       </c>
       <c r="F25">
-        <v>1.010524912778679</v>
+        <v>0.8493084022281789</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022573152998984</v>
+        <v>1.020152421920287</v>
       </c>
       <c r="J25">
-        <v>1.015350778269024</v>
+        <v>0.9603990470485851</v>
       </c>
       <c r="K25">
-        <v>1.015412916725442</v>
+        <v>0.9615777582962027</v>
       </c>
       <c r="L25">
-        <v>1.015175847790463</v>
+        <v>0.963801406053196</v>
       </c>
       <c r="M25">
-        <v>1.013659052224085</v>
+        <v>0.8630076184195975</v>
       </c>
       <c r="N25">
-        <v>1.016792692836528</v>
+        <v>0.9617629238547045</v>
       </c>
     </row>
   </sheetData>
